--- a/public/format_import/format_import_kompetensi.xlsx
+++ b/public/format_import/format_import_kompetensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\laravel\interna-bpkp\public\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F1493-1D04-481E-9569-98E4E1570BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB90A8BC-6014-4E0C-A822-3959A13E81C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EA850F-1772-4F23-9A4E-A08E795ECA0A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>nama_kompetensi</t>
   </si>
@@ -60,51 +60,6 @@
     <t>kompetensi 3</t>
   </si>
   <si>
-    <t>indikator perilaku 1</t>
-  </si>
-  <si>
-    <t>indikator perilaku 2</t>
-  </si>
-  <si>
-    <t>indikator perilaku 3</t>
-  </si>
-  <si>
-    <t>indikator perilaku 4</t>
-  </si>
-  <si>
-    <t>indikator perilaku 5</t>
-  </si>
-  <si>
-    <t>indikator perilaku 6</t>
-  </si>
-  <si>
-    <t>indikator perilaku 7</t>
-  </si>
-  <si>
-    <t>indikator perilaku 8</t>
-  </si>
-  <si>
-    <t>indikator perilaku 9</t>
-  </si>
-  <si>
-    <t>indikator perilaku 10</t>
-  </si>
-  <si>
-    <t>indikator perilaku 11</t>
-  </si>
-  <si>
-    <t>indikator perilaku 12</t>
-  </si>
-  <si>
-    <t>indikator perilaku 13</t>
-  </si>
-  <si>
-    <t>indikator perilaku 14</t>
-  </si>
-  <si>
-    <t>indikator perilaku 15</t>
-  </si>
-  <si>
     <t>deskripsi kompetensi 1</t>
   </si>
   <si>
@@ -118,51 +73,6 @@
   </si>
   <si>
     <t>deskripsi kompetensi 3</t>
-  </si>
-  <si>
-    <t>deskripsi level 1</t>
-  </si>
-  <si>
-    <t>deskripsi level 2</t>
-  </si>
-  <si>
-    <t>deskripsi level 3</t>
-  </si>
-  <si>
-    <t>deskripsi level 4</t>
-  </si>
-  <si>
-    <t>deskripsi level 5</t>
-  </si>
-  <si>
-    <t>deskripsi level 6</t>
-  </si>
-  <si>
-    <t>deskripsi level 7</t>
-  </si>
-  <si>
-    <t>deskripsi level 8</t>
-  </si>
-  <si>
-    <t>deskripsi level 9</t>
-  </si>
-  <si>
-    <t>deskripsi level 10</t>
-  </si>
-  <si>
-    <t>deskripsi level 11</t>
-  </si>
-  <si>
-    <t>deskripsi level 12</t>
-  </si>
-  <si>
-    <t>deskripsi level 13</t>
-  </si>
-  <si>
-    <t>deskripsi level 14</t>
-  </si>
-  <si>
-    <t>deskripsi level 15</t>
   </si>
 </sst>
 </file>
@@ -578,7 +488,7 @@
   <dimension ref="A1:F759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,17 +529,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9">
@@ -639,17 +545,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9">
@@ -659,17 +561,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="9">
@@ -679,17 +577,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9">
@@ -699,17 +593,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="9">
@@ -719,17 +609,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="9">
@@ -739,17 +625,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="9">
@@ -759,17 +641,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="9">
@@ -779,17 +657,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9">
@@ -799,17 +673,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>5</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9">
@@ -819,17 +689,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="9">
@@ -839,17 +705,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="9">
@@ -859,17 +721,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9">
@@ -879,17 +737,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9">
@@ -899,17 +753,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17"/>
